--- a/src/a_star/a_star_algorithm.xlsx
+++ b/src/a_star/a_star_algorithm.xlsx
@@ -3,19 +3,33 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57CBDBE-B27C-4723-8E24-6921D5D650AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81A9F55-5F10-4384-AC5A-D955F47E8C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="163">
   <si>
     <t>scramble</t>
     <phoneticPr fontId="0"/>
@@ -37,17 +51,636 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>L R U D</t>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>L R U D B L R</t>
-  </si>
-  <si>
-    <t>L' R' B' U' D' L' R'</t>
-  </si>
-  <si>
-    <t>U' D' L' R'</t>
+    <t>U2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B D2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D2 B'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L' F'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F L</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 R'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U' D</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U D'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F' U</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U' F</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U R'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R U'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F' B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 U'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R' L</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U2 R2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R2 U2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R2 B'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B R2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F2 R</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R' F2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L2 D2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D2 L2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F U</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U' F'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L' R</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F' L'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L F</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F U2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U2 F'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L D2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D2 L'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L2 U'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U L2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D2 L</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L' D2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D F' D</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D' F D'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D' R L2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R' L2 D</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 U B'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B U' B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L D R'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R D' L'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R' U R2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R2 U' R</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R2 L B</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B' L' R2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F2 R2 U</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U' R2 F2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U B2 U'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U2 R' D2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D2 R U2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L R'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D B U'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U B' D'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U L' R</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L R' U'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R F2 B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F2 B2 R'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 F2 B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D L' U'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U L D'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U' L B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 L' U</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U2 D2 F'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F D2 U2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 F' L'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L F B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U2 R2 U'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U R2 U2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U' F2 L'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L F2 U</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R2 B D L'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L D' B' R2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 U' F' L2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L2 F U B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R' L2 U2 B</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B' U2 R L2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 R' B2 R2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R2 B2 R B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D' U2 D2 F D2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 R D F'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F D' R' B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R2 L2 U B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 U' R2 L2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 R F U</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U' F' R' B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R' L R U'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U L'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D' F' B L2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L2 B' F D</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R' F' R' B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F B2 F' R F R</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L2 F' D2 F2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F2 D2 F L2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L2 R F D2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D2 F' R' L2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R B R D</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D' R' B' R'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F B' U2 B</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U2 F' B L2 B' L2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D2 F' U2 D'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R' L' R2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L' D R2 U'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U L R2 L' D' L</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F' D R2 U'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>U R2 D' F</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D R D2 B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 D2 R' D'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D2 F U B</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B' U' F' D2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L R D F</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F' D' L' R'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R' F2 B2 U' B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 U F2 B2 R</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L U D' B2 L</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L' U' B2 D U' L2 U L</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B L2 D' F2 L'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L F2 D L2 B'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L2 F' L F2 R2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R2 F2 L' F L2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R B' L D2 L</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>L' D2 L' B R'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F2 U2 D2 B2 D'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F2 D' U2 D' B2 D</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F R B L D2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D2 L' B' R' F'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F R' B2 F2 D'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>D F B2 F R F'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F2 R' L2 F' B2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B2 F R L2 F2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B D' B' R' F'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F R B D B'</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R' F L' U2 R</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>R' U2 L F' R</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>B U2 F' L2 F2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>F2 L2 F U2 B'</t>
+    <phoneticPr fontId="0"/>
   </si>
 </sst>
 </file>
@@ -389,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -404,7 +1037,7 @@
     <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,42 +1054,1655 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>539.87080000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>275319.91110000003</v>
-      </c>
-    </row>
+    <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:5" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="29" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="30" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="31" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="32" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="44" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="45" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="46" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="47" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="48" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="49" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="50" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="51" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="52" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="53" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="54" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="55" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="56" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="58" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="59" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="60" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="61" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="62" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="63" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="13.5" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="13.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E28B887-2231-4116-BA04-2827CAFF836A}">
+  <dimension ref="A1:E91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>4867</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>4682</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>6845</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>6013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>10451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>25483</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>24617</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>87928</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>4946</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>29352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>15753</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>9902</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>9810</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>2222444</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>339765</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>142779</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>25866</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66">
+        <v>364609</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67">
+        <v>22876</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>2129657</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>40670</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>570720</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>352612</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>12027</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>3049608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>130</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>134032</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>43122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>39355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>136</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78">
+        <v>208265</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>451275</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>45434233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>142</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>3875236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>144</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>1025941</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>93200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84">
+        <v>2935306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>2712457</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>152</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>17677181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>32667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>156</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>1037312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>22009</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>160</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>11892471</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>56935126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>